--- a/src/main/resources/VL_MPR.xlsx
+++ b/src/main/resources/VL_MPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neco it\sochbackend\JavaServices-Lab\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC599EC-3DE9-4A47-ADAB-8C7F5A905CAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{129CE90F-476A-45E1-80DE-2E5A0148C6C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{9B197496-F184-1449-BF0A-6B898F419299}"/>
   </bookViews>
@@ -87,10 +87,10 @@
     <t>MPR Month-Year</t>
   </si>
   <si>
+    <t>VL Lab State Name</t>
+  </si>
+  <si>
     <t>VL Lab District Name</t>
-  </si>
-  <si>
-    <t>VL Lab State Name</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -602,10 +602,10 @@
         <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
